--- a/output/cluster.json/gate.result.xlsx
+++ b/output/cluster.json/gate.result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,8 +439,8 @@
     <col customWidth="1" max="4" min="4" width="10"/>
     <col customWidth="1" max="5" min="5" width="10"/>
     <col customWidth="1" max="6" min="6" width="7"/>
-    <col customWidth="1" max="7" min="7" width="21"/>
-    <col customWidth="1" max="8" min="8" width="309"/>
+    <col customWidth="1" max="7" min="7" width="22"/>
+    <col customWidth="1" max="8" min="8" width="99"/>
     <col customWidth="1" max="9" min="9" width="6"/>
     <col customWidth="1" max="10" min="10" width="8"/>
     <col customWidth="1" max="11" min="11" width="8"/>
@@ -523,12 +523,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -538,14 +538,14 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>5167</v>
+        <v>12960</v>
       </c>
       <c r="G2" t="n">
-        <v>21.60568680744303</v>
+        <v>89.58318932743485</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'start': '2024-12-02 14:00:00.000000', 'end': '2024-12-02 15:00:00.000000'}</t>
+          <t>Game2GateServiceChannel.go:1022</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -577,12 +577,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -592,14 +592,14 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>5166</v>
+        <v>1007</v>
       </c>
       <c r="G3" t="n">
-        <v>21.60150533138198</v>
+        <v>6.960669109006705</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{'start': '2024-12-02 11:00:00.000000', 'end': '2024-12-02 12:00:00.000000'}</t>
+          <t>ratelimit_manager.go:136</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -646,14 +646,14 @@
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>5166</v>
+        <v>419</v>
       </c>
       <c r="G4" t="n">
-        <v>21.60150533138198</v>
+        <v>2.896246630261976</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>{'start': '2024-12-02 12:00:00.000000', 'end': '2024-12-02 13:00:00.000000'}</t>
+          <t>etcdregistry.go:367</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -700,14 +700,14 @@
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>5166</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>21.60150533138198</v>
+        <v>0.03456141563558444</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>{'start': '2024-12-02 13:00:00.000000', 'end': '2024-12-02 14:00:00.000000'}</t>
+          <t>TcpServer.go:122</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -754,14 +754,14 @@
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>2415</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>10.09826468743466</v>
+        <v>0.03456141563558444</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>{'start': '2024-12-02 15:00:00.000000', 'end': '2024-12-02 16:00:00.000000'}</t>
+          <t>Connection.go:238</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -808,14 +808,14 @@
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>834</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>3.487351034915325</v>
+        <v>0.03456141563558444</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>{'start': '2024-12-02 10:00:00.000000', 'end': '2024-12-02 11:00:00.000000'}</t>
+          <t>Connection.go:278</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -862,14 +862,14 @@
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00418147606104955</v>
+        <v>0.02764913250846755</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>{'start': '1970-01-01 00:00:00.000000', 'end': '1970-01-01 01:00:00.000000'}</t>
+          <t>service_proxy_manager.go:203</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -910,20 +910,20 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>23870</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>99.81183357725277</v>
+        <v>0.02764913250846755</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>debug</t>
+          <t>Game2GateServiceChannel.go:953</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -964,20 +964,20 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1839849466861802</v>
+        <v>0.02073684938135066</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>info</t>
+          <t>stateful_stream_dispatcher.go:30</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1018,20 +1018,20 @@
         </is>
       </c>
       <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
       <c r="G11" t="n">
-        <v>0.00418147606104955</v>
+        <v>0.02073684938135066</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>stateful_delay_handler.go:167</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1078,10 +1078,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>21517</v>
+        <v>12974</v>
       </c>
       <c r="G12" t="n">
-        <v>89.97282040560319</v>
+        <v>89.67996129121448</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1132,10 +1132,10 @@
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>1662</v>
+        <v>1007</v>
       </c>
       <c r="G13" t="n">
-        <v>6.949613213464353</v>
+        <v>6.960669109006705</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1186,10 +1186,10 @@
         <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>696</v>
+        <v>423</v>
       </c>
       <c r="G14" t="n">
-        <v>2.910307338490487</v>
+        <v>2.923895762770443</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1240,14 +1240,14 @@
         <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05435918879364415</v>
+        <v>0.124421096288104</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Gate</t>
+          <t>TcpConnection</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1294,14 +1294,14 @@
         <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0250888563662973</v>
+        <v>0.08985968065251952</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>main</t>
+          <t>Gate</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1348,14 +1348,14 @@
         <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0250888563662973</v>
+        <v>0.07603511439828575</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>TcpConnection</t>
+          <t>ClientProxyManager</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1402,10 +1402,10 @@
         <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02090738030524775</v>
+        <v>0.04838598188981821</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1456,14 +1456,14 @@
         <v>10</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01254442818314865</v>
+        <v>0.04147369876270132</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>DelayHandler</t>
+          <t>main</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1513,11 +1513,11 @@
         <v>3</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01254442818314865</v>
+        <v>0.02073684938135066</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>gate0</t>
+          <t>DelayHandler</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1564,14 +1564,14 @@
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0083629521220991</v>
+        <v>0.02073684938135066</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ClientProxyManager</t>
+          <t>gate0</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1615,17 +1615,17 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>21504</v>
+        <v>14407</v>
       </c>
       <c r="G22" t="n">
-        <v>89.91846121680953</v>
+        <v>99.58526301237298</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Game2GateServiceChannel.go:1022</t>
+          <t>debug</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1669,17 +1669,17 @@
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>1662</v>
+        <v>59</v>
       </c>
       <c r="G23" t="n">
-        <v>6.949613213464353</v>
+        <v>0.4078247044998963</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ratelimit_manager.go:136</t>
+          <t>info</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1723,17 +1723,17 @@
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>692</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>2.893581434246289</v>
+        <v>0.006912283127116886</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>etcdregistry.go:367</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1765,29 +1765,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>5149</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0167259042441982</v>
+        <v>35.59134582152485</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>service_proxy_manager.go:203</t>
+          <t>{'start': '2024-12-07 14:00:00.000000', 'end': '2024-12-07 15:00:00.000000'}</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1819,29 +1819,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>5136</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0167259042441982</v>
+        <v>35.50148614087233</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Game2GateServiceChannel.go:953</t>
+          <t>{'start': '2024-12-07 13:00:00.000000', 'end': '2024-12-07 14:00:00.000000'}</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1873,29 +1873,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>3935</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01254442818314865</v>
+        <v>27.19983410520495</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>TcpServer.go:122</t>
+          <t>{'start': '2024-12-07 12:00:00.000000', 'end': '2024-12-07 13:00:00.000000'}</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1927,29 +1927,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>246</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01254442818314865</v>
+        <v>1.700421649270754</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Connection.go:278</t>
+          <t>{'start': '2024-12-07 15:00:00.000000', 'end': '2024-12-07 16:00:00.000000'}</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01254442818314865</v>
+        <v>0.006912283127116886</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Connection.go:238</t>
+          <t>{'start': '1970-01-01 00:00:00.000000', 'end': '1970-01-01 01:00:00.000000'}</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2035,29 +2035,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>MESSAGE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>K_MEANS-30</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>4319</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01254442818314865</v>
+        <v>29.85415082601783</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>stateful_stream_dispatcher.go:30</t>
+          <t>['OnStatefulMsg 8043077-game0, StatefulConfigService0, MatchService']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2089,29 +2089,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>MESSAGE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>K_MEANS-30</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>4319</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01254442818314865</v>
+        <v>29.85415082601783</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>stateful_delay_handler.go:167</t>
+          <t>['OnStatefulMsg 8043077-game0, StatefulConfigService0, RoomService']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>7167</v>
+        <v>4319</v>
       </c>
       <c r="G32" t="n">
-        <v>29.96863892954213</v>
+        <v>29.85415082601783</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2206,20 +2206,20 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>7167</v>
+        <v>1007</v>
       </c>
       <c r="G33" t="n">
-        <v>29.96863892954213</v>
+        <v>6.960669109006705</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['OnStatefulMsg 8043077-game0, StatefulConfigService0, MatchService']</t>
+          <t>['checkReplicas GATE replicas 1']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2260,20 +2260,20 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>7167</v>
+        <v>419</v>
       </c>
       <c r="G34" t="n">
-        <v>29.96863892954213</v>
+        <v>2.896246630261976</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['OnStatefulMsg 8043077-game0, StatefulConfigService0, RoomService']</t>
+          <t>['KeepAliveOnce key: 8043077/ENGINE/GATE/6753cbc2cec7415fde11630b, leaseID: 7587883016994715586']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2314,20 +2314,20 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>1662</v>
+        <v>8</v>
       </c>
       <c r="G35" t="n">
-        <v>6.949613213464353</v>
+        <v>0.05529826501693509</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['checkReplicas GATE replicas 1']</t>
+          <t>['ReadLoop start, remote addr 10.8.43.77:11978']</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2368,20 +2368,20 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
       </c>
       <c r="F36" t="n">
-        <v>692</v>
+        <v>7</v>
       </c>
       <c r="G36" t="n">
-        <v>2.893581434246289</v>
+        <v>0.04838598188981821</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['KeepAliveOnce key: 8043077/ENGINE/GATE/674d208b5b513b40150fb200, leaseID: 7587883016994627328']</t>
+          <t>['WorkLoop start, remote addr 10.8.43.77:11978']</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2422,20 +2422,20 @@
         </is>
       </c>
       <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
         <v>6</v>
       </c>
-      <c r="E37" t="n">
-        <v>10</v>
-      </c>
-      <c r="F37" t="n">
-        <v>7</v>
-      </c>
       <c r="G37" t="n">
-        <v>0.02927033242734686</v>
+        <v>0.04147369876270132</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['ReadLoop start, remote addr 10.8.43.77:10573']</t>
+          <t>['Bind client ObjectID("6753cbeccec7415fde116316") to game 8043077-game0']</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2476,20 +2476,20 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0167259042441982</v>
+        <v>0.03456141563558444</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['ServiceProxyManager:addServiceProxy RoomService, StatefulRouter, 8043077-game0']</t>
+          <t>['New connection coming, client address 10.8.43.77:11978']</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2530,20 +2530,20 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0167259042441982</v>
+        <v>0.03456141563558444</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['MicroRegister process_id:"674d2097bf0e95e6cf5f67c8" process_type:"RoomService" process_name:"8043077-game0" route_strategy:"Random" metadata:"\\202\\250stateful\\303\\244name\\2558043077-game0" , isStateful true']</t>
+          <t>['Add clientProxy ObjectID("6753cbeccec7415fde116316")']</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2562,114 +2562,6 @@
         </is>
       </c>
       <c r="L39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>gate</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>MESSAGE</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>K_MEANS-30</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>9</v>
-      </c>
-      <c r="E40" t="n">
-        <v>10</v>
-      </c>
-      <c r="F40" t="n">
-        <v>3</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.01254442818314865</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>['gate_conf: {{ 8043077 true debug [http://10.8.45.77:2379] 0} {false nlb-o2j6gkt0mj6o5fbb4q.cn-shanghai.nlb.aliyuncs.com 4317 map[]} {true ./rsaKey 10000 service_list.json 0 false false rsaKey MW7VdXNMIHk96zxfGWOD4iccwEuVdNvD [10.8.45.77:7000]  0} {10.8.43.77 10.8.43.77 0 23000 23001 false 0 0 0 23003}}']</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>gate</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>MESSAGE</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>K_MEANS-30</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>10</v>
-      </c>
-      <c r="E41" t="n">
-        <v>10</v>
-      </c>
-      <c r="F41" t="n">
-        <v>3</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.01254442818314865</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>['TcpServer start listening address 10.8.43.77:23000']</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
